--- a/ТСИ/ПР1/Лист Microsoft Excel.xlsx
+++ b/ТСИ/ПР1/Лист Microsoft Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Характеристика </t>
   </si>
@@ -63,9 +63,6 @@
     <t>Пропускная способность IDE </t>
   </si>
   <si>
-    <t>Название поддерживаемого протокола для IDE Количество разъёмов USB </t>
-  </si>
-  <si>
     <t>Пропускная способность USB </t>
   </si>
   <si>
@@ -114,13 +111,25 @@
     <t>нет</t>
   </si>
   <si>
-    <t>3 x USB 3.2 Gen 2, 4 x USB 3.2 Gen 1 1 x USB 3.2 Gen 2x2</t>
-  </si>
-  <si>
     <t>есть</t>
   </si>
   <si>
     <t>20 Гбит/с</t>
+  </si>
+  <si>
+    <t>IOD</t>
+  </si>
+  <si>
+    <t>AMD Promontory B650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название поддерживаемого протокола для IDE </t>
+  </si>
+  <si>
+    <t>Количество разъёмов USB </t>
+  </si>
+  <si>
+    <t>нету</t>
   </si>
 </sst>
 </file>
@@ -463,16 +472,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -485,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -501,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -509,25 +518,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -535,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -575,87 +590,95 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
